--- a/biology/Zoologie/Étourneau_des_pagodes/Étourneau_des_pagodes.xlsx
+++ b/biology/Zoologie/Étourneau_des_pagodes/Étourneau_des_pagodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_des_pagodes</t>
+          <t>Étourneau_des_pagodes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sturnia pagodarum
-L'Étourneau des pagodes (Sturnia pagodarum) aussi appelé Martin des pagodes, Martin brahmanique[1],[2] est une espèce de passereaux de la famille des Sturnidae récemment déplacée vers le genre Sturnia mais quelquefois encore classé dans le genre Sturnus.
+L'Étourneau des pagodes (Sturnia pagodarum) aussi appelé Martin des pagodes, Martin brahmanique, est une espèce de passereaux de la famille des Sturnidae récemment déplacée vers le genre Sturnia mais quelquefois encore classé dans le genre Sturnus.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_des_pagodes</t>
+          <t>Étourneau_des_pagodes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 21 cm et ne présente pas de dimorphisme sexuel.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tourneau_des_pagodes</t>
+          <t>Étourneau_des_pagodes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit en Afghanistan, au Népal, en Inde et au Sri Lanka.
 </t>
